--- a/public/Plantillas/Reporte-Practicas1.3.xlsx
+++ b/public/Plantillas/Reporte-Practicas1.3.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ESPE_2023\sistema_vinculacion\sistema_vinculacion\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C670E0F-73F0-48F4-A814-3F48EDC0486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6837AFB9-649C-4C51-B785-EAD99672E31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$8:$AJ$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,85 +37,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>N|</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Empresa</t>
   </si>
   <si>
-    <t>Reporte de Estudiantes Practicas Pre-Profesionales I</t>
-  </si>
-  <si>
-    <t>Nombres Estudiante</t>
-  </si>
-  <si>
     <t>Departamento</t>
   </si>
   <si>
-    <t>Nivel</t>
-  </si>
-  <si>
-    <t>Practicas</t>
-  </si>
-  <si>
-    <t>Docente Tutor</t>
-  </si>
-  <si>
-    <t>Funcion</t>
-  </si>
-  <si>
-    <t>Estado Academico</t>
-  </si>
-  <si>
-    <t>Fecha inicio practicas</t>
-  </si>
-  <si>
-    <t>Fecha fin practicas</t>
-  </si>
-  <si>
-    <t>Horas planificadas</t>
-  </si>
-  <si>
-    <t>Hora de entrada</t>
-  </si>
-  <si>
-    <t>Hora de salida</t>
-  </si>
-  <si>
-    <t>Area de conocimiento</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Fecha creacion</t>
-  </si>
-  <si>
-    <t>Fecha actualizacion</t>
-  </si>
-  <si>
-    <t>Cedula</t>
-  </si>
-  <si>
     <t>Tutor Empresarial</t>
   </si>
   <si>
-    <t>Telefono de tutor empresarial</t>
-  </si>
-  <si>
-    <t>Correo tutor empresarial</t>
-  </si>
-  <si>
-    <t>Departamento tutor empresarial</t>
+    <t>Práctica 1</t>
+  </si>
+  <si>
+    <t>Tutor Academico</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Correo institucional</t>
+  </si>
+  <si>
+    <t>Periodo Ingreso Espe</t>
+  </si>
+  <si>
+    <t>Carrera</t>
+  </si>
+  <si>
+    <t>Fecha inicio</t>
+  </si>
+  <si>
+    <t>Fecha fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de horas </t>
+  </si>
+  <si>
+    <t>Tipo de practicas</t>
+  </si>
+  <si>
+    <t>Nombre Empresa</t>
+  </si>
+  <si>
+    <t>RUC</t>
+  </si>
+  <si>
+    <t>Actividades macro requeridas</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Correo empresarial</t>
+  </si>
+  <si>
+    <t>Apellidos y Nombre Contacto</t>
+  </si>
+  <si>
+    <t>Telefono Contacto</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI </t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE SEDE SANTO DOMINGO</t>
+  </si>
+  <si>
+    <t>CARRERA DE INGENIERÍA EN TECNOLOGÍAS DE LA INFORMACIÓN</t>
+  </si>
+  <si>
+    <t>Área de conocimiento</t>
+  </si>
+  <si>
+    <t>Hora entrada</t>
+  </si>
+  <si>
+    <t>Hora salida</t>
+  </si>
+  <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
+    <t>REPORTE DE PRACTICAS 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,24 +160,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40456C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40456C"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40456C"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40456C"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40456C"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -167,13 +250,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -183,24 +262,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -209,6 +329,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF40456C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -222,128 +347,84 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>905051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>132285</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2385060</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12374</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1428750" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="Imagen de consulta de la búsqueda visual">
+        <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DC82C9-45B8-9094-6C4C-39E0D45CB500}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B846B85E-E20C-474F-8523-C42EE44A1EF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="205740" y="449580"/>
-          <a:ext cx="2971800" cy="766754"/>
+          <a:off x="24137191" y="610750"/>
+          <a:ext cx="1428750" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>787144</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>908291</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>281268</xdr:rowOff>
+      <xdr:rowOff>108248</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>589073</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>108472</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="571500" cy="571500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="Computación Gráfica – Archivos Espe">
+        <xdr:cNvPr id="5" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E508E97-75FD-C968-BB16-BFF5E73BB25F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B649AC55-5698-42E8-B970-24AEDE3ED514}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="48972438" y="281268"/>
-          <a:ext cx="3414707" cy="831251"/>
+          <a:off x="22518965" y="586713"/>
+          <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -644,150 +725,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="69.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.5546875" customWidth="1"/>
-    <col min="4" max="4" width="67" customWidth="1"/>
-    <col min="5" max="5" width="77.44140625" customWidth="1"/>
-    <col min="6" max="6" width="52.88671875" customWidth="1"/>
-    <col min="7" max="7" width="47" customWidth="1"/>
-    <col min="8" max="8" width="41.77734375" customWidth="1"/>
-    <col min="9" max="9" width="41.109375" customWidth="1"/>
-    <col min="10" max="10" width="45.33203125" customWidth="1"/>
-    <col min="11" max="12" width="36.44140625" customWidth="1"/>
-    <col min="13" max="13" width="41.44140625" customWidth="1"/>
-    <col min="14" max="14" width="28.88671875" customWidth="1"/>
-    <col min="15" max="15" width="25.77734375" customWidth="1"/>
-    <col min="16" max="16" width="24.5546875" customWidth="1"/>
-    <col min="17" max="17" width="22.21875" customWidth="1"/>
-    <col min="18" max="18" width="29.77734375" customWidth="1"/>
-    <col min="19" max="19" width="22.88671875" customWidth="1"/>
-    <col min="20" max="20" width="28.109375" customWidth="1"/>
-    <col min="21" max="21" width="25.21875" customWidth="1"/>
-    <col min="22" max="22" width="34.44140625" customWidth="1"/>
-    <col min="23" max="23" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="11" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="25.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" customWidth="1"/>
+    <col min="18" max="18" width="31.88671875" customWidth="1"/>
+    <col min="19" max="19" width="28.109375" customWidth="1"/>
+    <col min="20" max="20" width="25.21875" customWidth="1"/>
+    <col min="21" max="21" width="22.21875" customWidth="1"/>
+    <col min="22" max="22" width="37.5546875" customWidth="1"/>
+    <col min="23" max="23" width="23" customWidth="1"/>
+    <col min="24" max="24" width="22.44140625" customWidth="1"/>
+    <col min="25" max="25" width="26.33203125" customWidth="1"/>
+    <col min="26" max="26" width="21.6640625" customWidth="1"/>
+    <col min="27" max="27" width="23" customWidth="1"/>
+    <col min="28" max="28" width="25.21875" customWidth="1"/>
+    <col min="29" max="29" width="23.33203125" customWidth="1"/>
+    <col min="30" max="30" width="24.21875" customWidth="1"/>
+    <col min="31" max="31" width="25.109375" customWidth="1"/>
+    <col min="32" max="32" width="22.33203125" customWidth="1"/>
+    <col min="33" max="33" width="22.88671875" customWidth="1"/>
+    <col min="34" max="34" width="26.6640625" customWidth="1"/>
+    <col min="35" max="35" width="25" customWidth="1"/>
+    <col min="36" max="36" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="E1" s="6" t="s">
+    <row r="1" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+    </row>
+    <row r="3" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
     </row>
-    <row r="8" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="AA8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="AG8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="AH8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:N1"/>
+  <autoFilter ref="B8:AJ8" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:AJ2"/>
+    <mergeCell ref="A3:AJ3"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AJ7"/>
+    <mergeCell ref="A6:AJ6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -796,6 +1109,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E3D40D7370BE704D9F987D37C7518305" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="713a4ab37a2269b86b211ad079bba34f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33c8bdda-defa-435a-b09b-17c633094ed5" xmlns:ns4="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="799d028bd5d959863f471fdad4996989" ns3:_="" ns4:_="">
     <xsd:import namespace="33c8bdda-defa-435a-b09b-17c633094ed5"/>
@@ -1022,15 +1344,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1040,6 +1353,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6CAFB9-21A0-4331-A882-841105351FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1054,14 +1375,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/public/Plantillas/Reporte-Practicas1.3.xlsx
+++ b/public/Plantillas/Reporte-Practicas1.3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6837AFB9-649C-4C51-B785-EAD99672E31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5238E67-CB7B-45D1-A963-86200D114473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE SEDE SANTO DOMINGO</t>
   </si>
   <si>
-    <t>CARRERA DE INGENIERÍA EN TECNOLOGÍAS DE LA INFORMACIÓN</t>
-  </si>
-  <si>
     <t>Área de conocimiento</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>REPORTE DE PRACTICAS 1</t>
+  </si>
+  <si>
+    <t>CARRERA DE TECNOLOGÍAS DE LA INFORMACIÓN7</t>
   </si>
 </sst>
 </file>
@@ -317,10 +317,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -378,45 +378,6 @@
         <a:xfrm>
           <a:off x="24137191" y="610750"/>
           <a:ext cx="1428750" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>908291</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>108248</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="571500" cy="571500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B649AC55-5698-42E8-B970-24AEDE3ED514}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22518965" y="586713"/>
-          <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -727,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,7 +777,7 @@
     </row>
     <row r="3" spans="1:36" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -855,49 +816,49 @@
       <c r="AJ3" s="12"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
+      <c r="A6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -968,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>12</v>
@@ -977,10 +938,10 @@
         <v>13</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>14</v>
@@ -1109,15 +1070,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E3D40D7370BE704D9F987D37C7518305" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="713a4ab37a2269b86b211ad079bba34f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33c8bdda-defa-435a-b09b-17c633094ed5" xmlns:ns4="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="799d028bd5d959863f471fdad4996989" ns3:_="" ns4:_="">
     <xsd:import namespace="33c8bdda-defa-435a-b09b-17c633094ed5"/>
@@ -1344,6 +1296,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1353,14 +1314,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6CAFB9-21A0-4331-A882-841105351FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1375,6 +1328,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/public/Plantillas/Reporte-Practicas1.3.xlsx
+++ b/public/Plantillas/Reporte-Practicas1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5238E67-CB7B-45D1-A963-86200D114473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A030D83-2C94-4683-9C85-350D21249D76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,128 +23,110 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Tutor Empresarial</t>
-  </si>
-  <si>
-    <t>Práctica 1</t>
-  </si>
-  <si>
-    <t>Tutor Academico</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Nombres</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Correo institucional</t>
-  </si>
-  <si>
-    <t>Periodo Ingreso Espe</t>
-  </si>
-  <si>
-    <t>Carrera</t>
-  </si>
-  <si>
-    <t>Fecha inicio</t>
-  </si>
-  <si>
-    <t>Fecha fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de horas </t>
-  </si>
-  <si>
-    <t>Tipo de practicas</t>
-  </si>
-  <si>
-    <t>Nombre Empresa</t>
-  </si>
-  <si>
     <t>RUC</t>
   </si>
   <si>
-    <t>Actividades macro requeridas</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
-    <t>Direccion</t>
-  </si>
-  <si>
-    <t>Correo empresarial</t>
-  </si>
-  <si>
-    <t>Apellidos y Nombre Contacto</t>
-  </si>
-  <si>
-    <t>Telefono Contacto</t>
-  </si>
-  <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Cargo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI </t>
-  </si>
-  <si>
     <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE SEDE SANTO DOMINGO</t>
   </si>
   <si>
-    <t>Área de conocimiento</t>
-  </si>
-  <si>
-    <t>Hora entrada</t>
-  </si>
-  <si>
-    <t>Hora salida</t>
-  </si>
-  <si>
-    <t>Estudiante</t>
-  </si>
-  <si>
-    <t>REPORTE DE PRACTICAS 1</t>
-  </si>
-  <si>
     <t>CARRERA DE TECNOLOGÍAS DE LA INFORMACIÓN7</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>APELLIDOS Y NOMBRES</t>
+  </si>
+  <si>
+    <t>CÉDULA</t>
+  </si>
+  <si>
+    <t>ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>CORREO INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t>PERIODO INGRESO</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>ÁREA DE CONOCIMIENTO</t>
+  </si>
+  <si>
+    <t>FECHA INICIO</t>
+  </si>
+  <si>
+    <t>FECHA FIN</t>
+  </si>
+  <si>
+    <t>HORA ENTRADA</t>
+  </si>
+  <si>
+    <t>HORA SALIDA</t>
+  </si>
+  <si>
+    <t>NÚMERO DE HORAS</t>
+  </si>
+  <si>
+    <t>TIPO DE PRÁCTICA</t>
+  </si>
+  <si>
+    <t>NOMBRE EMPRESA</t>
+  </si>
+  <si>
+    <t>ACTIVIDADES MACRO</t>
+  </si>
+  <si>
+    <t>PROVINCIA</t>
+  </si>
+  <si>
+    <t>CIUDAD</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN</t>
+  </si>
+  <si>
+    <t>TELÉFONO DE CONTACTO</t>
+  </si>
+  <si>
+    <t>CORREO</t>
+  </si>
+  <si>
+    <t>TELÉFONO</t>
+  </si>
+  <si>
+    <t>CARGO</t>
+  </si>
+  <si>
+    <t>TUTOR ACADÉMICO</t>
+  </si>
+  <si>
+    <t>TUTOR EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>PRÁCTICA 1.3</t>
+  </si>
+  <si>
+    <t>REPORTE DE PRÁCTICAS 1.3</t>
   </si>
 </sst>
 </file>
@@ -688,56 +670,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="34.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="25.5546875" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" customWidth="1"/>
     <col min="15" max="15" width="23" customWidth="1"/>
-    <col min="16" max="16" width="23.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.5546875" customWidth="1"/>
-    <col min="18" max="18" width="31.88671875" customWidth="1"/>
-    <col min="19" max="19" width="28.109375" customWidth="1"/>
-    <col min="20" max="20" width="25.21875" customWidth="1"/>
-    <col min="21" max="21" width="22.21875" customWidth="1"/>
-    <col min="22" max="22" width="37.5546875" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" customWidth="1"/>
+    <col min="18" max="18" width="31.85546875" customWidth="1"/>
+    <col min="19" max="19" width="28.140625" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" customWidth="1"/>
+    <col min="22" max="22" width="37.5703125" customWidth="1"/>
     <col min="23" max="23" width="23" customWidth="1"/>
-    <col min="24" max="24" width="22.44140625" customWidth="1"/>
-    <col min="25" max="25" width="26.33203125" customWidth="1"/>
-    <col min="26" max="26" width="21.6640625" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" customWidth="1"/>
+    <col min="25" max="25" width="26.28515625" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" customWidth="1"/>
     <col min="27" max="27" width="23" customWidth="1"/>
-    <col min="28" max="28" width="25.21875" customWidth="1"/>
-    <col min="29" max="29" width="23.33203125" customWidth="1"/>
-    <col min="30" max="30" width="24.21875" customWidth="1"/>
-    <col min="31" max="31" width="25.109375" customWidth="1"/>
-    <col min="32" max="32" width="22.33203125" customWidth="1"/>
-    <col min="33" max="33" width="22.88671875" customWidth="1"/>
-    <col min="34" max="34" width="26.6640625" customWidth="1"/>
+    <col min="28" max="28" width="25.28515625" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" customWidth="1"/>
+    <col min="30" max="30" width="24.28515625" customWidth="1"/>
+    <col min="31" max="31" width="25.140625" customWidth="1"/>
+    <col min="32" max="32" width="22.28515625" customWidth="1"/>
+    <col min="33" max="33" width="22.85546875" customWidth="1"/>
+    <col min="34" max="34" width="26.7109375" customWidth="1"/>
     <col min="35" max="35" width="25" customWidth="1"/>
-    <col min="36" max="36" width="22.33203125" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="18" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -775,9 +757,9 @@
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
     </row>
-    <row r="3" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -815,9 +797,9 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -855,10 +837,10 @@
       <c r="AI6" s="21"/>
       <c r="AJ6" s="21"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="13" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -867,7 +849,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -876,7 +858,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="17" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
@@ -887,14 +869,14 @@
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
       <c r="Y7" s="18" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="Z7" s="16"/>
       <c r="AA7" s="16"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="19" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="AE7" s="16"/>
       <c r="AF7" s="16"/>
@@ -903,84 +885,84 @@
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
     </row>
-    <row r="8" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="D8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="X8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="Y8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="AA8" s="7" t="s">
         <v>25</v>
@@ -992,28 +974,28 @@
         <v>27</v>
       </c>
       <c r="AD8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AE8" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="AF8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="AH8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1070,6 +1052,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E3D40D7370BE704D9F987D37C7518305" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="713a4ab37a2269b86b211ad079bba34f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33c8bdda-defa-435a-b09b-17c633094ed5" xmlns:ns4="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="799d028bd5d959863f471fdad4996989" ns3:_="" ns4:_="">
     <xsd:import namespace="33c8bdda-defa-435a-b09b-17c633094ed5"/>
@@ -1296,7 +1286,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1305,15 +1295,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
+    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6CAFB9-21A0-4331-A882-841105351FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1332,27 +1331,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
-    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/public/Plantillas/Reporte-Practicas1.3.xlsx
+++ b/public/Plantillas/Reporte-Practicas1.3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis\Tesis_Final_Version\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A030D83-2C94-4683-9C85-350D21249D76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ACA294-AC47-40F1-9049-F31AB66BDC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$8:$AJ$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$8:$AM$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>REPORTE DE PRÁCTICAS 1.3</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>PERIODO DE PRACTICA</t>
+  </si>
+  <si>
+    <t>NOTA</t>
   </si>
 </sst>
 </file>
@@ -331,7 +340,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>905051</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>132285</xdr:rowOff>
@@ -668,56 +677,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:O7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" customWidth="1"/>
-    <col min="19" max="19" width="28.140625" customWidth="1"/>
-    <col min="20" max="20" width="25.28515625" customWidth="1"/>
-    <col min="21" max="21" width="22.28515625" customWidth="1"/>
-    <col min="22" max="22" width="37.5703125" customWidth="1"/>
-    <col min="23" max="23" width="23" customWidth="1"/>
-    <col min="24" max="24" width="22.42578125" customWidth="1"/>
-    <col min="25" max="25" width="26.28515625" customWidth="1"/>
-    <col min="26" max="26" width="21.7109375" customWidth="1"/>
-    <col min="27" max="27" width="23" customWidth="1"/>
-    <col min="28" max="28" width="25.28515625" customWidth="1"/>
-    <col min="29" max="29" width="23.28515625" customWidth="1"/>
-    <col min="30" max="30" width="24.28515625" customWidth="1"/>
-    <col min="31" max="31" width="25.140625" customWidth="1"/>
-    <col min="32" max="32" width="22.28515625" customWidth="1"/>
-    <col min="33" max="33" width="22.85546875" customWidth="1"/>
-    <col min="34" max="34" width="26.7109375" customWidth="1"/>
-    <col min="35" max="35" width="25" customWidth="1"/>
-    <col min="36" max="36" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" customWidth="1"/>
+    <col min="6" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="25.5546875" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.5546875" customWidth="1"/>
+    <col min="20" max="20" width="31.88671875" customWidth="1"/>
+    <col min="21" max="21" width="28.109375" customWidth="1"/>
+    <col min="22" max="22" width="25.33203125" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
+    <col min="24" max="24" width="37.5546875" customWidth="1"/>
+    <col min="25" max="25" width="23" customWidth="1"/>
+    <col min="26" max="26" width="22.44140625" customWidth="1"/>
+    <col min="27" max="27" width="26.33203125" customWidth="1"/>
+    <col min="28" max="28" width="21.6640625" customWidth="1"/>
+    <col min="29" max="29" width="23" customWidth="1"/>
+    <col min="30" max="30" width="25.33203125" customWidth="1"/>
+    <col min="31" max="31" width="23.33203125" customWidth="1"/>
+    <col min="32" max="32" width="24.33203125" customWidth="1"/>
+    <col min="33" max="33" width="25.109375" customWidth="1"/>
+    <col min="34" max="34" width="22.33203125" customWidth="1"/>
+    <col min="35" max="35" width="22.88671875" customWidth="1"/>
+    <col min="36" max="36" width="26.6640625" customWidth="1"/>
+    <col min="37" max="38" width="25" customWidth="1"/>
+    <col min="39" max="39" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -756,8 +767,11 @@
       <c r="AH2" s="12"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
     </row>
-    <row r="3" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -796,8 +810,11 @@
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>32</v>
       </c>
@@ -836,8 +853,11 @@
       <c r="AH6" s="21"/>
       <c r="AI6" s="21"/>
       <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="13" t="s">
         <v>7</v>
@@ -848,44 +868,47 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
-      <c r="Y7" s="18" t="s">
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="16"/>
-      <c r="AD7" s="19" t="s">
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
     </row>
-    <row r="8" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -905,97 +928,106 @@
         <v>9</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="Z8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="AA8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="7" t="s">
+      <c r="AB8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="7" t="s">
+      <c r="AC8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AB8" s="8" t="s">
+      <c r="AD8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC8" s="7" t="s">
+      <c r="AE8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AL8" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="AM8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1032,18 +1064,21 @@
       <c r="AH9" s="11"/>
       <c r="AI9" s="11"/>
       <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B8:AJ8" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}"/>
+  <autoFilter ref="B8:AM8" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}"/>
   <mergeCells count="8">
-    <mergeCell ref="A2:AJ2"/>
-    <mergeCell ref="A3:AJ3"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AJ7"/>
-    <mergeCell ref="A6:AJ6"/>
+    <mergeCell ref="A2:AM2"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="R7:Z7"/>
+    <mergeCell ref="AA7:AE7"/>
+    <mergeCell ref="AF7:AM7"/>
+    <mergeCell ref="A6:AM6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1052,11 +1087,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1287,27 +1323,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
-    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1332,9 +1358,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
+    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/public/Plantillas/Reporte-Practicas1.3.xlsx
+++ b/public/Plantillas/Reporte-Practicas1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis_version\tesis2\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ACA294-AC47-40F1-9049-F31AB66BDC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D422936F-E2CC-4C43-9E2D-AD0BDA062A89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE SEDE SANTO DOMINGO</t>
   </si>
   <si>
-    <t>CARRERA DE TECNOLOGÍAS DE LA INFORMACIÓN7</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -132,10 +129,13 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>PERIODO DE PRACTICA</t>
-  </si>
-  <si>
     <t>NOTA</t>
+  </si>
+  <si>
+    <t>CARRERA DE TECNOLOGÍAS DE LA INFORMACIÓN</t>
+  </si>
+  <si>
+    <t>PERIODO DE PRÁCTICA</t>
   </si>
 </sst>
 </file>
@@ -338,20 +338,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1020537</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>905051</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>132285</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1428750" cy="476250"/>
+      <xdr:colOff>1524001</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57186</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B846B85E-E20C-474F-8523-C42EE44A1EF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DB3E45-5884-470B-90DE-0D596F7AA4BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -360,15 +365,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24137191" y="610750"/>
-          <a:ext cx="1428750" cy="476250"/>
+          <a:off x="25635858" y="204108"/>
+          <a:ext cx="2041072" cy="574257"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -376,7 +387,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -679,48 +690,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}">
   <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="34.109375" customWidth="1"/>
-    <col min="6" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="35.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="25.5546875" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" customWidth="1"/>
     <col min="17" max="17" width="23" customWidth="1"/>
-    <col min="18" max="18" width="23.33203125" customWidth="1"/>
-    <col min="19" max="19" width="19.5546875" customWidth="1"/>
-    <col min="20" max="20" width="31.88671875" customWidth="1"/>
-    <col min="21" max="21" width="28.109375" customWidth="1"/>
-    <col min="22" max="22" width="25.33203125" customWidth="1"/>
-    <col min="23" max="23" width="22.33203125" customWidth="1"/>
-    <col min="24" max="24" width="37.5546875" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" customWidth="1"/>
+    <col min="21" max="21" width="28.140625" customWidth="1"/>
+    <col min="22" max="22" width="25.28515625" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="24" max="24" width="37.5703125" customWidth="1"/>
     <col min="25" max="25" width="23" customWidth="1"/>
-    <col min="26" max="26" width="22.44140625" customWidth="1"/>
-    <col min="27" max="27" width="26.33203125" customWidth="1"/>
-    <col min="28" max="28" width="21.6640625" customWidth="1"/>
+    <col min="26" max="26" width="22.42578125" customWidth="1"/>
+    <col min="27" max="27" width="26.28515625" customWidth="1"/>
+    <col min="28" max="28" width="21.7109375" customWidth="1"/>
     <col min="29" max="29" width="23" customWidth="1"/>
-    <col min="30" max="30" width="25.33203125" customWidth="1"/>
-    <col min="31" max="31" width="23.33203125" customWidth="1"/>
-    <col min="32" max="32" width="24.33203125" customWidth="1"/>
-    <col min="33" max="33" width="25.109375" customWidth="1"/>
-    <col min="34" max="34" width="22.33203125" customWidth="1"/>
-    <col min="35" max="35" width="22.88671875" customWidth="1"/>
-    <col min="36" max="36" width="26.6640625" customWidth="1"/>
+    <col min="30" max="30" width="25.28515625" customWidth="1"/>
+    <col min="31" max="31" width="23.28515625" customWidth="1"/>
+    <col min="32" max="32" width="24.28515625" customWidth="1"/>
+    <col min="33" max="33" width="25.140625" customWidth="1"/>
+    <col min="34" max="34" width="22.28515625" customWidth="1"/>
+    <col min="35" max="35" width="22.85546875" customWidth="1"/>
+    <col min="36" max="36" width="26.7109375" customWidth="1"/>
     <col min="37" max="38" width="25" customWidth="1"/>
-    <col min="39" max="39" width="22.33203125" customWidth="1"/>
+    <col min="39" max="39" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="18" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -728,7 +739,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -771,9 +782,9 @@
       <c r="AL2" s="12"/>
       <c r="AM2" s="12"/>
     </row>
-    <row r="3" spans="1:39" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -814,9 +825,9 @@
       <c r="AL3" s="12"/>
       <c r="AM3" s="12"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -857,10 +868,10 @@
       <c r="AL6" s="21"/>
       <c r="AM6" s="21"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -871,7 +882,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -880,7 +891,7 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -891,14 +902,14 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB7" s="16"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
@@ -908,126 +919,126 @@
       <c r="AL7" s="16"/>
       <c r="AM7" s="16"/>
     </row>
-    <row r="8" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="T8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y8" s="4" t="s">
+      <c r="AA8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="6" t="s">
+      <c r="AC8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AA8" s="7" t="s">
+      <c r="AD8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="AH8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AL8" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="AM8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1087,12 +1098,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1323,17 +1333,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="33c8bdda-defa-435a-b09b-17c633094ed5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
+    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1358,18 +1378,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f"/>
-    <ds:schemaRef ds:uri="33c8bdda-defa-435a-b09b-17c633094ed5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>